--- a/teaching/traditional_assets/database/data/bangladesh/bangladesh_bank_money_center.xlsx
+++ b/teaching/traditional_assets/database/data/bangladesh/bangladesh_bank_money_center.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ28"/>
+  <dimension ref="A1:AQ26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,10 +591,10 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.08175</v>
+        <v>0.07694999999999999</v>
       </c>
       <c r="E2">
-        <v>0.06279999999999999</v>
+        <v>0.0353</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -603,34 +603,34 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-0.003235912000504071</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>-0.001810771914646413</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>815.28</v>
+        <v>730.54</v>
       </c>
       <c r="L2">
-        <v>0.2078629340676151</v>
+        <v>0.2066591230551627</v>
       </c>
       <c r="M2">
-        <v>147.523</v>
+        <v>162.9404</v>
       </c>
       <c r="N2">
-        <v>0.02533671103477888</v>
+        <v>0.02880230502722195</v>
       </c>
       <c r="O2">
-        <v>0.1809476498871553</v>
+        <v>0.2230410381361733</v>
       </c>
       <c r="P2">
-        <v>147.523</v>
+        <v>162.9404</v>
       </c>
       <c r="Q2">
-        <v>0.02533671103477888</v>
+        <v>0.02880230502722195</v>
       </c>
       <c r="R2">
-        <v>0.1809476498871553</v>
+        <v>0.2230410381361733</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,67 +639,61 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>6673.6</v>
+        <v>6670.4</v>
       </c>
       <c r="V2">
-        <v>1.146174323744096</v>
+        <v>1.179099201018172</v>
       </c>
       <c r="W2">
-        <v>0.1187922521230151</v>
+        <v>0.1000220964043706</v>
       </c>
       <c r="X2">
-        <v>0.09122277609314289</v>
+        <v>0.09801811904678361</v>
       </c>
       <c r="Y2">
-        <v>0.0275694760298722</v>
+        <v>0.002003977357586992</v>
       </c>
       <c r="Z2">
-        <v>0.4618368492915392</v>
+        <v>0.4224577840983783</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.06670663512614985</v>
+        <v>0.06065018293547857</v>
       </c>
       <c r="AC2">
-        <v>-0.06685357606689536</v>
+        <v>-0.06065018293547857</v>
       </c>
       <c r="AD2">
-        <v>8131.7</v>
+        <v>9193.4</v>
       </c>
       <c r="AE2">
-        <v>101.2094702418853</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>8232.909470241886</v>
+        <v>9193.4</v>
       </c>
       <c r="AG2">
-        <v>1559.309470241886</v>
+        <v>2523</v>
       </c>
       <c r="AH2">
-        <v>0.5857466826329466</v>
+        <v>0.6190591625927573</v>
       </c>
       <c r="AI2">
-        <v>0.5217369376840572</v>
+        <v>0.5434447209595138</v>
       </c>
       <c r="AJ2">
-        <v>0.211236753878286</v>
+        <v>0.3084276668052126</v>
       </c>
       <c r="AK2">
-        <v>0.1712358446549622</v>
+        <v>0.2462304201434636</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
         <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>1077.046357615894</v>
-      </c>
-      <c r="AP2">
-        <v>206.5310556611769</v>
       </c>
     </row>
     <row r="3">
@@ -719,10 +713,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.06509999999999999</v>
+        <v>0.04769999999999999</v>
       </c>
       <c r="E3">
-        <v>0.0711</v>
+        <v>0.0566</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -737,28 +731,28 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>22.5</v>
+        <v>25.1</v>
       </c>
       <c r="L3">
-        <v>0.1992914083259522</v>
+        <v>0.2195975503062118</v>
       </c>
       <c r="M3">
-        <v>8.76</v>
+        <v>1.21</v>
       </c>
       <c r="N3">
-        <v>0.06702371843917368</v>
+        <v>0.008509142053445851</v>
       </c>
       <c r="O3">
-        <v>0.3893333333333333</v>
+        <v>0.04820717131474103</v>
       </c>
       <c r="P3">
-        <v>8.76</v>
+        <v>1.21</v>
       </c>
       <c r="Q3">
-        <v>0.06702371843917368</v>
+        <v>0.008509142053445851</v>
       </c>
       <c r="R3">
-        <v>0.3893333333333333</v>
+        <v>0.04820717131474103</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -767,55 +761,55 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>159.8</v>
+        <v>140.4</v>
       </c>
       <c r="V3">
-        <v>1.222647283856159</v>
+        <v>0.9873417721518989</v>
       </c>
       <c r="W3">
-        <v>0.1327433628318584</v>
+        <v>0.1399888455103179</v>
       </c>
       <c r="X3">
-        <v>0.05942191060546997</v>
+        <v>0.05205526822101801</v>
       </c>
       <c r="Y3">
-        <v>0.07332145222638844</v>
+        <v>0.08793357728929989</v>
       </c>
       <c r="Z3">
-        <v>-1.509358288770053</v>
+        <v>2.562780269058296</v>
       </c>
       <c r="AA3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.05807670941894379</v>
+        <v>0.05062074747540636</v>
       </c>
       <c r="AC3">
-        <v>-0.05807670941894379</v>
+        <v>-0.05062074747540636</v>
       </c>
       <c r="AD3">
-        <v>25.1</v>
+        <v>16.5</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>25.1</v>
+        <v>16.5</v>
       </c>
       <c r="AG3">
-        <v>-134.7</v>
+        <v>-123.9</v>
       </c>
       <c r="AH3">
-        <v>0.1611039794608473</v>
+        <v>0.1039697542533081</v>
       </c>
       <c r="AI3">
-        <v>0.1227984344422701</v>
+        <v>0.07607192254495158</v>
       </c>
       <c r="AJ3">
-        <v>33.67499999999976</v>
+        <v>-6.770491803278695</v>
       </c>
       <c r="AK3">
-        <v>-3.02017937219731</v>
+        <v>-1.619607843137255</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -841,10 +835,10 @@
         </is>
       </c>
       <c r="D4">
-        <v>-0.0173</v>
+        <v>0.0694</v>
       </c>
       <c r="E4">
-        <v>-0.143</v>
+        <v>0.0434</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -859,10 +853,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>39.8</v>
+        <v>42.3</v>
       </c>
       <c r="L4">
-        <v>0.2601307189542483</v>
+        <v>0.2784726793943383</v>
       </c>
       <c r="M4">
         <v>-0</v>
@@ -886,55 +880,55 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>50.4</v>
+        <v>51.7</v>
       </c>
       <c r="V4">
-        <v>0.1809045226130653</v>
+        <v>0.2040252565114444</v>
       </c>
       <c r="W4">
-        <v>0.07728155339805824</v>
+        <v>0.07702112163146393</v>
       </c>
       <c r="X4">
-        <v>0.06781675952411109</v>
+        <v>0.06494193689625805</v>
       </c>
       <c r="Y4">
-        <v>0.00946479387394715</v>
+        <v>0.01207918473520589</v>
       </c>
       <c r="Z4">
-        <v>0.2659019812304484</v>
+        <v>0.2369734789391575</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.06215824604034699</v>
+        <v>0.05544143011356178</v>
       </c>
       <c r="AC4">
-        <v>-0.06215824604034699</v>
+        <v>-0.05544143011356178</v>
       </c>
       <c r="AD4">
-        <v>142.2</v>
+        <v>140.1</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>142.2</v>
+        <v>140.1</v>
       </c>
       <c r="AG4">
-        <v>91.79999999999998</v>
+        <v>88.39999999999999</v>
       </c>
       <c r="AH4">
-        <v>0.3379277566539924</v>
+        <v>0.3560355781448539</v>
       </c>
       <c r="AI4">
-        <v>0.2056696557708996</v>
+        <v>0.1900434074877916</v>
       </c>
       <c r="AJ4">
-        <v>0.2478401727861771</v>
+        <v>0.2586307782328847</v>
       </c>
       <c r="AK4">
-        <v>0.1432137285491419</v>
+        <v>0.1289569657184537</v>
       </c>
       <c r="AL4">
         <v>0</v>
@@ -951,7 +945,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Standard Bank Limited (DSE:STANDBANKL)</t>
+          <t>Social Islami Bank Limited (DSE:SIBL)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -960,10 +954,10 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.0737</v>
+        <v>0.0677</v>
       </c>
       <c r="E5">
-        <v>0.0604</v>
+        <v>-0.0119</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -981,79 +975,82 @@
         <v>18.7</v>
       </c>
       <c r="L5">
-        <v>0.2346298619824341</v>
+        <v>0.1805019305019305</v>
       </c>
       <c r="M5">
-        <v>-0</v>
+        <v>5.628</v>
       </c>
       <c r="N5">
-        <v>-0</v>
+        <v>0.03911049339819319</v>
       </c>
       <c r="O5">
-        <v>-0</v>
+        <v>0.3009625668449198</v>
       </c>
       <c r="P5">
-        <v>-0</v>
+        <v>5.628</v>
       </c>
       <c r="Q5">
-        <v>-0</v>
+        <v>0.03911049339819319</v>
       </c>
       <c r="R5">
-        <v>-0</v>
+        <v>0.3009625668449198</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
       <c r="U5">
-        <v>351.3</v>
+        <v>185.9</v>
       </c>
       <c r="V5">
-        <v>3.499003984063745</v>
+        <v>1.29186935371786</v>
       </c>
       <c r="W5">
-        <v>0.1145131659522351</v>
+        <v>0.09609455292908531</v>
       </c>
       <c r="X5">
-        <v>0.0953815575647687</v>
+        <v>0.06605722035187031</v>
       </c>
       <c r="Y5">
-        <v>0.01913160838746644</v>
+        <v>0.030037332577215</v>
       </c>
       <c r="Z5">
-        <v>6.083969465648845</v>
+        <v>0.5658110322228291</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.06393486882032022</v>
+        <v>0.05573414544514944</v>
       </c>
       <c r="AC5">
-        <v>-0.06393486882032022</v>
+        <v>-0.05573414544514944</v>
       </c>
       <c r="AD5">
-        <v>156.2</v>
+        <v>85</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>156.2</v>
+        <v>85</v>
       </c>
       <c r="AG5">
-        <v>-195.1</v>
+        <v>-100.9</v>
       </c>
       <c r="AH5">
-        <v>0.6087295401402961</v>
+        <v>0.3713411970292704</v>
       </c>
       <c r="AI5">
-        <v>0.4646044021415824</v>
+        <v>0.2856182795698924</v>
       </c>
       <c r="AJ5">
-        <v>2.060190073917635</v>
+        <v>-2.346511627906977</v>
       </c>
       <c r="AK5">
-        <v>12.92052980132449</v>
+        <v>-0.9033124440465534</v>
       </c>
       <c r="AL5">
         <v>0</v>
@@ -1070,7 +1067,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Mutual Trust Bank Limited (DSE:MTB)</t>
+          <t>International Finance Investment and Commerce Bank Limited (DSE:IFIC)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1079,10 +1076,10 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.0955</v>
+        <v>0.0669</v>
       </c>
       <c r="E6">
-        <v>0.078</v>
+        <v>0.0775</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1097,10 +1094,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>21.5</v>
+        <v>22.6</v>
       </c>
       <c r="L6">
-        <v>0.2211934156378601</v>
+        <v>0.2257742257742258</v>
       </c>
       <c r="M6">
         <v>-0</v>
@@ -1124,55 +1121,55 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>93</v>
+        <v>155.5</v>
       </c>
       <c r="V6">
-        <v>0.4447632711621234</v>
+        <v>0.5350997935306262</v>
       </c>
       <c r="W6">
-        <v>0.1413543721236029</v>
+        <v>0.0740255486406813</v>
       </c>
       <c r="X6">
-        <v>0.10111769426717</v>
+        <v>0.06659990878914657</v>
       </c>
       <c r="Y6">
-        <v>0.04023667785643294</v>
+        <v>0.007425639851534729</v>
       </c>
       <c r="Z6">
-        <v>0.2533229085222831</v>
+        <v>0.2969445268466331</v>
       </c>
       <c r="AA6">
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.06441771606811848</v>
+        <v>0.05587160344251825</v>
       </c>
       <c r="AC6">
-        <v>-0.06441771606811848</v>
+        <v>-0.05587160344251825</v>
       </c>
       <c r="AD6">
-        <v>370.8</v>
+        <v>177</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>370.8</v>
+        <v>177</v>
       </c>
       <c r="AG6">
-        <v>277.8</v>
+        <v>21.5</v>
       </c>
       <c r="AH6">
-        <v>0.6394205897568547</v>
+        <v>0.3785286569717707</v>
       </c>
       <c r="AI6">
-        <v>0.6724700761697497</v>
+        <v>0.3516789191337175</v>
       </c>
       <c r="AJ6">
-        <v>0.5705483672211954</v>
+        <v>0.06888817686638897</v>
       </c>
       <c r="AK6">
-        <v>0.606020942408377</v>
+        <v>0.06181713628522139</v>
       </c>
       <c r="AL6">
         <v>0</v>
@@ -1189,7 +1186,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Prime Bank Limited (DSE:PRIMEBANK)</t>
+          <t>National Credit and Commerce Bank Limited (DSE:NCCBANK)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1198,10 +1195,10 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.0138</v>
+        <v>0.0613</v>
       </c>
       <c r="E7">
-        <v>-0.0408</v>
+        <v>0.0139</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1216,28 +1213,28 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>29.2</v>
+        <v>22.3</v>
       </c>
       <c r="L7">
-        <v>0.1986394557823129</v>
+        <v>0.232776617954071</v>
       </c>
       <c r="M7">
-        <v>17.4</v>
+        <v>16.0803</v>
       </c>
       <c r="N7">
-        <v>0.07169344870210136</v>
+        <v>0.1090929443690638</v>
       </c>
       <c r="O7">
-        <v>0.595890410958904</v>
+        <v>0.7210896860986548</v>
       </c>
       <c r="P7">
-        <v>17.4</v>
+        <v>16.0803</v>
       </c>
       <c r="Q7">
-        <v>0.07169344870210136</v>
+        <v>0.1090929443690638</v>
       </c>
       <c r="R7">
-        <v>0.595890410958904</v>
+        <v>0.7210896860986548</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -1246,55 +1243,55 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>116.1</v>
+        <v>186.1</v>
       </c>
       <c r="V7">
-        <v>0.4783683559950556</v>
+        <v>1.262550881953867</v>
       </c>
       <c r="W7">
-        <v>0.09665673618007281</v>
+        <v>0.09767849321068769</v>
       </c>
       <c r="X7">
-        <v>0.1017279231529445</v>
+        <v>0.08125366462550312</v>
       </c>
       <c r="Y7">
-        <v>-0.005071186972871719</v>
+        <v>0.01642482858518457</v>
       </c>
       <c r="Z7">
-        <v>0.3312302839116719</v>
+        <v>0.4737883283877348</v>
       </c>
       <c r="AA7">
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.06446466199255632</v>
+        <v>0.05867528809679737</v>
       </c>
       <c r="AC7">
-        <v>-0.06446466199255632</v>
+        <v>-0.05867528809679737</v>
       </c>
       <c r="AD7">
-        <v>436</v>
+        <v>163</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>436</v>
+        <v>163</v>
       </c>
       <c r="AG7">
-        <v>319.9</v>
+        <v>-23.09999999999999</v>
       </c>
       <c r="AH7">
-        <v>0.6424045970237218</v>
+        <v>0.5251288659793815</v>
       </c>
       <c r="AI7">
-        <v>0.5832775919732441</v>
+        <v>0.4069912609238452</v>
       </c>
       <c r="AJ7">
-        <v>0.568610024884465</v>
+        <v>-0.1858407079646017</v>
       </c>
       <c r="AK7">
-        <v>0.5066518847006651</v>
+        <v>-0.1077425373134328</v>
       </c>
       <c r="AL7">
         <v>0</v>
@@ -1311,7 +1308,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Dutch-Bangla Bank Limited (DSE:DUTCHBANGL)</t>
+          <t>Trust Bank Limited (DSE:TRUSTBANK)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1320,10 +1317,10 @@
         </is>
       </c>
       <c r="D8">
-        <v>0.148</v>
+        <v>0.07679999999999999</v>
       </c>
       <c r="E8">
-        <v>0.188</v>
+        <v>0.11</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1338,28 +1335,28 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>58</v>
+        <v>35.5</v>
       </c>
       <c r="L8">
-        <v>0.1863154513331192</v>
+        <v>0.2988215488215488</v>
       </c>
       <c r="M8">
-        <v>4.91</v>
+        <v>3.61</v>
       </c>
       <c r="N8">
-        <v>0.01169326030007145</v>
+        <v>0.01423501577287066</v>
       </c>
       <c r="O8">
-        <v>0.08465517241379311</v>
+        <v>0.1016901408450704</v>
       </c>
       <c r="P8">
-        <v>4.91</v>
+        <v>3.61</v>
       </c>
       <c r="Q8">
-        <v>0.01169326030007145</v>
+        <v>0.01423501577287066</v>
       </c>
       <c r="R8">
-        <v>0.08465517241379311</v>
+        <v>0.1016901408450704</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -1368,55 +1365,55 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>155.9</v>
+        <v>174.3</v>
       </c>
       <c r="V8">
-        <v>0.3712788759228388</v>
+        <v>0.6873028391167193</v>
       </c>
       <c r="W8">
-        <v>0.2258566978193146</v>
+        <v>0.2017045454545454</v>
       </c>
       <c r="X8">
-        <v>0.07518155665693305</v>
+        <v>0.08427342884232035</v>
       </c>
       <c r="Y8">
-        <v>0.1506751411623816</v>
+        <v>0.1174311166122251</v>
       </c>
       <c r="Z8">
-        <v>0.5587865733261533</v>
+        <v>0.7528517110266161</v>
       </c>
       <c r="AA8">
         <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.06454320196204499</v>
+        <v>0.05909629901910286</v>
       </c>
       <c r="AC8">
-        <v>-0.06454320196204499</v>
+        <v>-0.05909629901910286</v>
       </c>
       <c r="AD8">
-        <v>331.6</v>
+        <v>306.4</v>
       </c>
       <c r="AE8">
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>331.6</v>
+        <v>306.4</v>
       </c>
       <c r="AG8">
-        <v>175.7</v>
+        <v>132.1</v>
       </c>
       <c r="AH8">
-        <v>0.4412508316699934</v>
+        <v>0.5471428571428572</v>
       </c>
       <c r="AI8">
-        <v>0.5145872129112352</v>
+        <v>0.5927645579415748</v>
       </c>
       <c r="AJ8">
-        <v>0.2949966420416387</v>
+        <v>0.3424941664506093</v>
       </c>
       <c r="AK8">
-        <v>0.3596724667349028</v>
+        <v>0.385580852305896</v>
       </c>
       <c r="AL8">
         <v>0</v>
@@ -1433,7 +1430,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>International Finance Investment and Commerce Bank Limited (DSE:IFIC)</t>
+          <t>Pubali Bank Limited (DSE:PUBALIBANK)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1442,10 +1439,10 @@
         </is>
       </c>
       <c r="D9">
-        <v>0.0533</v>
+        <v>0.014</v>
       </c>
       <c r="E9">
-        <v>0.106</v>
+        <v>-0.07490000000000001</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1460,82 +1457,85 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>35.4</v>
+        <v>28.1</v>
       </c>
       <c r="L9">
-        <v>0.3238792314730101</v>
+        <v>0.1629930394431555</v>
       </c>
       <c r="M9">
-        <v>-0</v>
+        <v>7.77</v>
       </c>
       <c r="N9">
-        <v>-0</v>
+        <v>0.02656410256410256</v>
       </c>
       <c r="O9">
-        <v>-0</v>
+        <v>0.2765124555160142</v>
       </c>
       <c r="P9">
-        <v>-0</v>
+        <v>7.77</v>
       </c>
       <c r="Q9">
-        <v>-0</v>
+        <v>0.02656410256410256</v>
       </c>
       <c r="R9">
-        <v>-0</v>
+        <v>0.2765124555160142</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
       <c r="U9">
-        <v>118.8</v>
+        <v>278.7</v>
       </c>
       <c r="V9">
-        <v>0.6919044845661037</v>
+        <v>0.9528205128205128</v>
       </c>
       <c r="W9">
-        <v>0.1304828603022484</v>
+        <v>0.08187645687645688</v>
       </c>
       <c r="X9">
-        <v>0.07748614950245986</v>
+        <v>0.08461642176058055</v>
       </c>
       <c r="Y9">
-        <v>0.05299671079978857</v>
+        <v>-0.002739964884123675</v>
       </c>
       <c r="Z9">
-        <v>0.4308238076468269</v>
+        <v>0.4308922769307674</v>
       </c>
       <c r="AA9">
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>0.06514370939370603</v>
+        <v>0.05914166289756762</v>
       </c>
       <c r="AC9">
-        <v>-0.06514370939370603</v>
+        <v>-0.05914166289756762</v>
       </c>
       <c r="AD9">
-        <v>150.6</v>
+        <v>356.8</v>
       </c>
       <c r="AE9">
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>150.6</v>
+        <v>356.8</v>
       </c>
       <c r="AG9">
-        <v>31.8</v>
+        <v>78.10000000000002</v>
       </c>
       <c r="AH9">
-        <v>0.4672665218740304</v>
+        <v>0.5495148621592485</v>
       </c>
       <c r="AI9">
-        <v>0.3303355999122615</v>
+        <v>0.470960929250264</v>
       </c>
       <c r="AJ9">
-        <v>0.1562653562653563</v>
+        <v>0.210739341608203</v>
       </c>
       <c r="AK9">
-        <v>0.09433402551171757</v>
+        <v>0.1630820630611819</v>
       </c>
       <c r="AL9">
         <v>0</v>
@@ -1552,7 +1552,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Social Islami Bank Limited (DSE:SIBL)</t>
+          <t>Jamuna Bank Limited (DSE:JAMUNABANK)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1561,10 +1561,10 @@
         </is>
       </c>
       <c r="D10">
-        <v>0.128</v>
+        <v>0.123</v>
       </c>
       <c r="E10">
-        <v>-0.00834</v>
+        <v>0.09880000000000001</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1579,82 +1579,85 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>18.6</v>
+        <v>32.5</v>
       </c>
       <c r="L10">
-        <v>0.1668161434977579</v>
+        <v>0.2663934426229508</v>
       </c>
       <c r="M10">
-        <v>-0</v>
+        <v>13.2</v>
       </c>
       <c r="N10">
-        <v>-0</v>
+        <v>0.07937462417318099</v>
       </c>
       <c r="O10">
-        <v>-0</v>
+        <v>0.4061538461538461</v>
       </c>
       <c r="P10">
-        <v>-0</v>
+        <v>13.2</v>
       </c>
       <c r="Q10">
-        <v>-0</v>
+        <v>0.07937462417318099</v>
       </c>
       <c r="R10">
-        <v>-0</v>
+        <v>0.4061538461538461</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
       <c r="U10">
-        <v>142.8</v>
+        <v>36.9</v>
       </c>
       <c r="V10">
-        <v>0.9834710743801655</v>
+        <v>0.221888153938665</v>
       </c>
       <c r="W10">
-        <v>0.104847801578354</v>
+        <v>0.1664959016393443</v>
       </c>
       <c r="X10">
-        <v>0.07820228503802804</v>
+        <v>0.08808297198530335</v>
       </c>
       <c r="Y10">
-        <v>0.02664551654032597</v>
+        <v>0.07841292965404092</v>
       </c>
       <c r="Z10">
-        <v>0.578920041536864</v>
+        <v>0.35331595713872</v>
       </c>
       <c r="AA10">
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>0.06531908694124458</v>
+        <v>0.05957481358515129</v>
       </c>
       <c r="AC10">
-        <v>-0.06531908694124458</v>
+        <v>-0.05957481358515129</v>
       </c>
       <c r="AD10">
-        <v>131.3</v>
+        <v>222.4</v>
       </c>
       <c r="AE10">
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>131.3</v>
+        <v>222.4</v>
       </c>
       <c r="AG10">
-        <v>-11.5</v>
+        <v>185.5</v>
       </c>
       <c r="AH10">
-        <v>0.4748643761301989</v>
+        <v>0.5721636223308464</v>
       </c>
       <c r="AI10">
-        <v>0.4028843203436638</v>
+        <v>0.4792070674423615</v>
       </c>
       <c r="AJ10">
-        <v>-0.08601346297681377</v>
+        <v>0.5272882319499715</v>
       </c>
       <c r="AK10">
-        <v>-0.06280720917531404</v>
+        <v>0.4342228464419476</v>
       </c>
       <c r="AL10">
         <v>0</v>
@@ -1671,7 +1674,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Rupali Bank Limited (DSE:RUPALIBANK)</t>
+          <t>Shahjalal Islami Bank Limited (DSE:SHAHJABANK)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1680,7 +1683,10 @@
         </is>
       </c>
       <c r="D11">
-        <v>0.151</v>
+        <v>0.131</v>
+      </c>
+      <c r="E11">
+        <v>0.0699</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1695,82 +1701,85 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>4.55</v>
+        <v>21.8</v>
       </c>
       <c r="L11">
-        <v>0.03738701725554643</v>
+        <v>0.2162698412698413</v>
       </c>
       <c r="M11">
-        <v>-0</v>
+        <v>5.5</v>
       </c>
       <c r="N11">
-        <v>-0</v>
+        <v>0.02076255190637977</v>
       </c>
       <c r="O11">
-        <v>-0</v>
+        <v>0.2522935779816514</v>
       </c>
       <c r="P11">
-        <v>-0</v>
+        <v>5.5</v>
       </c>
       <c r="Q11">
-        <v>-0</v>
+        <v>0.02076255190637977</v>
       </c>
       <c r="R11">
-        <v>-0</v>
+        <v>0.2522935779816514</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
       <c r="U11">
-        <v>318.3</v>
+        <v>134.2</v>
       </c>
       <c r="V11">
-        <v>2.139112903225806</v>
+        <v>0.5066062665156663</v>
       </c>
       <c r="W11">
-        <v>0.02241379310344828</v>
+        <v>0.1138381201044386</v>
       </c>
       <c r="X11">
-        <v>0.07996455058837749</v>
+        <v>0.09032554706979823</v>
       </c>
       <c r="Y11">
-        <v>-0.05755075748492922</v>
+        <v>0.02351257303464041</v>
       </c>
       <c r="Z11">
-        <v>-0.6276431150077358</v>
+        <v>0.2457937088514996</v>
       </c>
       <c r="AA11">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB11">
-        <v>0.06573007669827285</v>
+        <v>0.05983255564223865</v>
       </c>
       <c r="AC11">
-        <v>-0.06573007669827285</v>
+        <v>-0.05983255564223865</v>
       </c>
       <c r="AD11">
-        <v>144.5</v>
+        <v>374.4</v>
       </c>
       <c r="AE11">
         <v>0</v>
       </c>
       <c r="AF11">
-        <v>144.5</v>
+        <v>374.4</v>
       </c>
       <c r="AG11">
-        <v>-173.8</v>
+        <v>240.2</v>
       </c>
       <c r="AH11">
-        <v>0.4926696215479032</v>
+        <v>0.5856405443453777</v>
       </c>
       <c r="AI11">
-        <v>0.425</v>
+        <v>0.6409861325115563</v>
       </c>
       <c r="AJ11">
-        <v>6.952000000000001</v>
+        <v>0.4755493961591764</v>
       </c>
       <c r="AK11">
-        <v>-8.009216589861756</v>
+        <v>0.5338964214269838</v>
       </c>
       <c r="AL11">
         <v>0</v>
@@ -1787,7 +1796,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Pubali Bank Limited (DSE:PUBALIBANK)</t>
+          <t>Islami Bank Bangladesh Limited (DSE:ISLAMIBANK)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1796,10 +1805,10 @@
         </is>
       </c>
       <c r="D12">
-        <v>0.0554</v>
+        <v>0.0771</v>
       </c>
       <c r="E12">
-        <v>0.0634</v>
+        <v>-0.0318</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1814,28 +1823,28 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>44.2</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="L12">
-        <v>0.2481751824817519</v>
+        <v>0.1512605042016807</v>
       </c>
       <c r="M12">
-        <v>11.8</v>
+        <v>19</v>
       </c>
       <c r="N12">
-        <v>0.04060564349621473</v>
+        <v>0.03730610642057726</v>
       </c>
       <c r="O12">
-        <v>0.2669683257918552</v>
+        <v>0.2852852852852853</v>
       </c>
       <c r="P12">
-        <v>11.8</v>
+        <v>19</v>
       </c>
       <c r="Q12">
-        <v>0.04060564349621473</v>
+        <v>0.03730610642057726</v>
       </c>
       <c r="R12">
-        <v>0.2669683257918552</v>
+        <v>0.2852852852852853</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -1844,55 +1853,55 @@
         <v>0</v>
       </c>
       <c r="U12">
-        <v>228</v>
+        <v>1273.3</v>
       </c>
       <c r="V12">
-        <v>0.7845836200963523</v>
+        <v>2.500098173964265</v>
       </c>
       <c r="W12">
-        <v>0.141168955605238</v>
+        <v>0.09801324503311258</v>
       </c>
       <c r="X12">
-        <v>0.08020933637762846</v>
+        <v>0.09231652770230295</v>
       </c>
       <c r="Y12">
-        <v>0.06095961922760949</v>
+        <v>0.005696717330809634</v>
       </c>
       <c r="Z12">
-        <v>0.8303030303030301</v>
+        <v>24.73595505617984</v>
       </c>
       <c r="AA12">
         <v>0</v>
       </c>
       <c r="AB12">
-        <v>0.06578497066942504</v>
+        <v>0.06004814437234356</v>
       </c>
       <c r="AC12">
-        <v>-0.06578497066942504</v>
+        <v>-0.06004814437234356</v>
       </c>
       <c r="AD12">
-        <v>284.9</v>
+        <v>754.2</v>
       </c>
       <c r="AE12">
         <v>0</v>
       </c>
       <c r="AF12">
-        <v>284.9</v>
+        <v>754.2</v>
       </c>
       <c r="AG12">
-        <v>56.89999999999998</v>
+        <v>-519.0999999999999</v>
       </c>
       <c r="AH12">
-        <v>0.4950477845351868</v>
+        <v>0.5969133359715078</v>
       </c>
       <c r="AI12">
-        <v>0.4535901926444834</v>
+        <v>0.5098702001081666</v>
       </c>
       <c r="AJ12">
-        <v>0.1637410071942445</v>
+        <v>52.96938775510259</v>
       </c>
       <c r="AK12">
-        <v>0.1422144463884029</v>
+        <v>-2.521126760563379</v>
       </c>
       <c r="AL12">
         <v>0</v>
@@ -1909,7 +1918,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BRAC Bank Limited (DSE:BRACBANK)</t>
+          <t>Southeast Bank Limited (DSE:SOUTHEASTB)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1918,10 +1927,10 @@
         </is>
       </c>
       <c r="D13">
-        <v>0.154</v>
+        <v>-0.0386</v>
       </c>
       <c r="E13">
-        <v>0.24</v>
+        <v>-0.126</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1936,28 +1945,28 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>58.7</v>
+        <v>23.6</v>
       </c>
       <c r="L13">
-        <v>0.1843592964824121</v>
+        <v>0.2395939086294416</v>
       </c>
       <c r="M13">
-        <v>0.023</v>
+        <v>10.7001</v>
       </c>
       <c r="N13">
-        <v>2.773088979985532e-05</v>
+        <v>0.06100399087799316</v>
       </c>
       <c r="O13">
-        <v>0.0003918228279386712</v>
+        <v>0.4533940677966102</v>
       </c>
       <c r="P13">
-        <v>0.023</v>
+        <v>10.7001</v>
       </c>
       <c r="Q13">
-        <v>2.773088979985532e-05</v>
+        <v>0.06100399087799316</v>
       </c>
       <c r="R13">
-        <v>0.0003918228279386712</v>
+        <v>0.4533940677966102</v>
       </c>
       <c r="S13">
         <v>0</v>
@@ -1966,55 +1975,55 @@
         <v>0</v>
       </c>
       <c r="U13">
-        <v>601.9</v>
+        <v>491.2</v>
       </c>
       <c r="V13">
-        <v>0.725705329153605</v>
+        <v>2.800456100342075</v>
       </c>
       <c r="W13">
-        <v>0.1517187903851125</v>
+        <v>0.06407819712191148</v>
       </c>
       <c r="X13">
-        <v>0.06790789587834214</v>
+        <v>0.09785947112759738</v>
       </c>
       <c r="Y13">
-        <v>0.08381089450677032</v>
+        <v>-0.0337812740056859</v>
       </c>
       <c r="Z13">
-        <v>2.696020321761219</v>
+        <v>0.4265915980944131</v>
       </c>
       <c r="AA13">
         <v>0</v>
       </c>
       <c r="AB13">
-        <v>0.06634278211693517</v>
+        <v>0.06059091102750966</v>
       </c>
       <c r="AC13">
-        <v>-0.06634278211693517</v>
+        <v>-0.06059091102750966</v>
       </c>
       <c r="AD13">
-        <v>426.2</v>
+        <v>292.7</v>
       </c>
       <c r="AE13">
         <v>0</v>
       </c>
       <c r="AF13">
-        <v>426.2</v>
+        <v>292.7</v>
       </c>
       <c r="AG13">
-        <v>-175.7</v>
+        <v>-198.5</v>
       </c>
       <c r="AH13">
-        <v>0.3394393118827652</v>
+        <v>0.6252937406537065</v>
       </c>
       <c r="AI13">
-        <v>0.4451639857948611</v>
+        <v>0.4234051786489224</v>
       </c>
       <c r="AJ13">
-        <v>-0.2687777267859874</v>
+        <v>8.593073593073596</v>
       </c>
       <c r="AK13">
-        <v>-0.4942334739803093</v>
+        <v>-0.9920039980009994</v>
       </c>
       <c r="AL13">
         <v>0</v>
@@ -2031,7 +2040,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Jamuna Bank Limited (DSE:JAMUNABANK)</t>
+          <t>Standard Bank Limited (DSE:STANDBANKL)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2040,10 +2049,10 @@
         </is>
       </c>
       <c r="D14">
-        <v>0.142</v>
+        <v>0.08869999999999999</v>
       </c>
       <c r="E14">
-        <v>0.189</v>
+        <v>0.013</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -2058,28 +2067,28 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="L14">
-        <v>0.287891617273497</v>
+        <v>0.173697270471464</v>
       </c>
       <c r="M14">
-        <v>17.7</v>
+        <v>5.65</v>
       </c>
       <c r="N14">
-        <v>0.1084558823529412</v>
+        <v>0.05730223123732252</v>
       </c>
       <c r="O14">
-        <v>0.5205882352941176</v>
+        <v>0.4035714285714286</v>
       </c>
       <c r="P14">
-        <v>17.7</v>
+        <v>5.65</v>
       </c>
       <c r="Q14">
-        <v>0.1084558823529412</v>
+        <v>0.05730223123732252</v>
       </c>
       <c r="R14">
-        <v>0.5205882352941176</v>
+        <v>0.4035714285714286</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -2088,55 +2097,55 @@
         <v>0</v>
       </c>
       <c r="U14">
-        <v>35</v>
+        <v>362.5</v>
       </c>
       <c r="V14">
-        <v>0.2144607843137255</v>
+        <v>3.676470588235294</v>
       </c>
       <c r="W14">
-        <v>0.163855421686747</v>
+        <v>0.07954545454545454</v>
       </c>
       <c r="X14">
-        <v>0.08426496664952295</v>
+        <v>0.09817676696596983</v>
       </c>
       <c r="Y14">
-        <v>0.07959045503722405</v>
+        <v>-0.01863131242051529</v>
       </c>
       <c r="Z14">
-        <v>0.3683718028696194</v>
+        <v>-2.296296296296299</v>
       </c>
       <c r="AA14">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB14">
-        <v>0.06662495776802786</v>
+        <v>0.06061967724507029</v>
       </c>
       <c r="AC14">
-        <v>-0.06662495776802786</v>
+        <v>-0.06061967724507029</v>
       </c>
       <c r="AD14">
-        <v>185.1</v>
+        <v>165.6</v>
       </c>
       <c r="AE14">
         <v>0</v>
       </c>
       <c r="AF14">
-        <v>185.1</v>
+        <v>165.6</v>
       </c>
       <c r="AG14">
-        <v>150.1</v>
+        <v>-196.9</v>
       </c>
       <c r="AH14">
-        <v>0.5314384151593454</v>
+        <v>0.6267978803936411</v>
       </c>
       <c r="AI14">
-        <v>0.4867210097291612</v>
+        <v>0.4681933842239186</v>
       </c>
       <c r="AJ14">
-        <v>0.4790935205872966</v>
+        <v>2.003051881993896</v>
       </c>
       <c r="AK14">
-        <v>0.4346944685780481</v>
+        <v>22.37499999999997</v>
       </c>
       <c r="AL14">
         <v>0</v>
@@ -2153,7 +2162,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Trust Bank Limited (DSE:TRUSTBANK)</t>
+          <t>Al-Arafah Islami Bank Limited (DSE:ALARABANK)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2162,10 +2171,10 @@
         </is>
       </c>
       <c r="D15">
-        <v>0.126</v>
+        <v>0.0989</v>
       </c>
       <c r="E15">
-        <v>0.246</v>
+        <v>0.102</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -2180,82 +2189,85 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>29.8</v>
+        <v>42.5</v>
       </c>
       <c r="L15">
-        <v>0.2806026365348399</v>
+        <v>0.2781413612565445</v>
       </c>
       <c r="M15">
-        <v>-0</v>
+        <v>16.3</v>
       </c>
       <c r="N15">
-        <v>-0</v>
+        <v>0.05840200644930132</v>
       </c>
       <c r="O15">
-        <v>-0</v>
+        <v>0.3835294117647059</v>
       </c>
       <c r="P15">
-        <v>-0</v>
+        <v>16.3</v>
       </c>
       <c r="Q15">
-        <v>-0</v>
+        <v>0.05840200644930132</v>
       </c>
       <c r="R15">
-        <v>-0</v>
+        <v>0.3835294117647059</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
       <c r="U15">
-        <v>248.9</v>
+        <v>471.4</v>
       </c>
       <c r="V15">
-        <v>1.258978249873546</v>
+        <v>1.689000358294518</v>
       </c>
       <c r="W15">
-        <v>0.2017603249830738</v>
+        <v>0.176056338028169</v>
       </c>
       <c r="X15">
-        <v>0.08512796604740233</v>
+        <v>0.0988582698349748</v>
       </c>
       <c r="Y15">
-        <v>0.1166323589356715</v>
+        <v>0.07719806819319421</v>
       </c>
       <c r="Z15">
-        <v>0.8798674399337201</v>
+        <v>0.540502299257163</v>
       </c>
       <c r="AA15">
         <v>0</v>
       </c>
       <c r="AB15">
-        <v>0.06678831248427183</v>
+        <v>0.06068068862588684</v>
       </c>
       <c r="AC15">
-        <v>-0.06678831248427183</v>
+        <v>-0.06068068862588684</v>
       </c>
       <c r="AD15">
-        <v>230.7</v>
+        <v>475.2</v>
       </c>
       <c r="AE15">
         <v>0</v>
       </c>
       <c r="AF15">
-        <v>230.7</v>
+        <v>475.2</v>
       </c>
       <c r="AG15">
-        <v>-18.20000000000002</v>
+        <v>3.800000000000011</v>
       </c>
       <c r="AH15">
-        <v>0.538515406162465</v>
+        <v>0.6299880684077953</v>
       </c>
       <c r="AI15">
-        <v>0.5672485861814606</v>
+        <v>0.6248520710059171</v>
       </c>
       <c r="AJ15">
-        <v>-0.1013927576601672</v>
+        <v>0.01343230823612588</v>
       </c>
       <c r="AK15">
-        <v>-0.1153358681875793</v>
+        <v>0.01314424074714635</v>
       </c>
       <c r="AL15">
         <v>0</v>
@@ -2272,7 +2284,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>AB Bank Limited (DSE:ABBANK)</t>
+          <t>Eastern Bank Limited (DSE:EBL)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2281,7 +2293,10 @@
         </is>
       </c>
       <c r="D16">
-        <v>-0.111</v>
+        <v>0.0858</v>
+      </c>
+      <c r="E16">
+        <v>0.0974</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -2296,82 +2311,85 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>-1.47</v>
+        <v>54.8</v>
       </c>
       <c r="L16">
-        <v>-0.02158590308370044</v>
+        <v>0.3598161523309257</v>
       </c>
       <c r="M16">
-        <v>-0</v>
+        <v>2.46</v>
       </c>
       <c r="N16">
-        <v>-0</v>
+        <v>0.007130434782608695</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.04489051094890511</v>
       </c>
       <c r="P16">
-        <v>-0</v>
+        <v>2.46</v>
       </c>
       <c r="Q16">
-        <v>-0</v>
+        <v>0.007130434782608695</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>0.04489051094890511</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
       <c r="U16">
-        <v>129.1</v>
+        <v>131.8</v>
       </c>
       <c r="V16">
-        <v>1.831205673758865</v>
+        <v>0.3820289855072464</v>
       </c>
       <c r="W16">
-        <v>-0.005070714039323905</v>
+        <v>0.1914076143904995</v>
       </c>
       <c r="X16">
-        <v>0.1587848404245753</v>
+        <v>0.1012522111295675</v>
       </c>
       <c r="Y16">
-        <v>-0.1638555544638992</v>
+        <v>0.09015540326093201</v>
       </c>
       <c r="Z16">
-        <v>0.1178200692041522</v>
+        <v>0.2145674837982531</v>
       </c>
       <c r="AA16">
         <v>0</v>
       </c>
       <c r="AB16">
-        <v>0.06691883964951889</v>
+        <v>0.06088697925669231</v>
       </c>
       <c r="AC16">
-        <v>-0.06691883964951889</v>
+        <v>-0.06088697925669231</v>
       </c>
       <c r="AD16">
-        <v>279.2</v>
+        <v>615.4</v>
       </c>
       <c r="AE16">
         <v>0</v>
       </c>
       <c r="AF16">
-        <v>279.2</v>
+        <v>615.4</v>
       </c>
       <c r="AG16">
-        <v>150.1</v>
+        <v>483.6</v>
       </c>
       <c r="AH16">
-        <v>0.79839862739491</v>
+        <v>0.6407746772178259</v>
       </c>
       <c r="AI16">
-        <v>0.4954747116237799</v>
+        <v>0.6421118530884808</v>
       </c>
       <c r="AJ16">
-        <v>0.6804170444242974</v>
+        <v>0.5836350470673425</v>
       </c>
       <c r="AK16">
-        <v>0.3455340699815838</v>
+        <v>0.5850471812242923</v>
       </c>
       <c r="AL16">
         <v>0</v>
@@ -2388,7 +2406,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Shahjalal Islami Bank Limited (DSE:SHAHJABANK)</t>
+          <t>Prime Bank Limited (DSE:PRIMEBANK)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2397,10 +2415,10 @@
         </is>
       </c>
       <c r="D17">
-        <v>0.165</v>
+        <v>0.0111</v>
       </c>
       <c r="E17">
-        <v>0.146</v>
+        <v>-0.18</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -2415,82 +2433,85 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>17.2</v>
+        <v>14.2</v>
       </c>
       <c r="L17">
-        <v>0.1691248770894788</v>
+        <v>0.1145161290322581</v>
       </c>
       <c r="M17">
-        <v>-0</v>
+        <v>6.08</v>
       </c>
       <c r="N17">
-        <v>-0</v>
+        <v>0.02660831509846827</v>
       </c>
       <c r="O17">
-        <v>-0</v>
+        <v>0.4281690140845071</v>
       </c>
       <c r="P17">
-        <v>-0</v>
+        <v>6.08</v>
       </c>
       <c r="Q17">
-        <v>-0</v>
+        <v>0.02660831509846827</v>
       </c>
       <c r="R17">
-        <v>-0</v>
+        <v>0.4281690140845071</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
       <c r="U17">
-        <v>94.2</v>
+        <v>150.8</v>
       </c>
       <c r="V17">
-        <v>0.3662519440124417</v>
+        <v>0.6599562363238513</v>
       </c>
       <c r="W17">
-        <v>0.0979498861047836</v>
+        <v>0.04558587479935795</v>
       </c>
       <c r="X17">
-        <v>0.08642673711946712</v>
+        <v>0.1106647350039212</v>
       </c>
       <c r="Y17">
-        <v>0.01152314898531648</v>
+        <v>-0.06507886020456327</v>
       </c>
       <c r="Z17">
-        <v>0.2009087317265903</v>
+        <v>0.1963889768767818</v>
       </c>
       <c r="AA17">
         <v>0</v>
       </c>
       <c r="AB17">
-        <v>0.06702505879520156</v>
+        <v>0.06159345350967584</v>
       </c>
       <c r="AC17">
-        <v>-0.06702505879520156</v>
+        <v>-0.06159345350967584</v>
       </c>
       <c r="AD17">
-        <v>312.8</v>
+        <v>480.5</v>
       </c>
       <c r="AE17">
         <v>0</v>
       </c>
       <c r="AF17">
-        <v>312.8</v>
+        <v>480.5</v>
       </c>
       <c r="AG17">
-        <v>218.6</v>
+        <v>329.7</v>
       </c>
       <c r="AH17">
-        <v>0.5487719298245615</v>
+        <v>0.6777150916784203</v>
       </c>
       <c r="AI17">
-        <v>0.6169625246548324</v>
+        <v>0.6067685313802248</v>
       </c>
       <c r="AJ17">
-        <v>0.4594367381252628</v>
+        <v>0.5906485130777498</v>
       </c>
       <c r="AK17">
-        <v>0.5295542635658915</v>
+        <v>0.5142723444080487</v>
       </c>
       <c r="AL17">
         <v>0</v>
@@ -2507,7 +2528,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>National Credit and Commerce Bank Limited (DSE:NCCBANK)</t>
+          <t>Export Import Bank of Bangladesh Limited (DSE:EXIMBANK)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2516,10 +2537,10 @@
         </is>
       </c>
       <c r="D18">
-        <v>0.108</v>
+        <v>0.106</v>
       </c>
       <c r="E18">
-        <v>0.109</v>
+        <v>0.148</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -2534,28 +2555,28 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>26.1</v>
+        <v>44.6</v>
       </c>
       <c r="L18">
-        <v>0.2476280834914611</v>
+        <v>0.287001287001287</v>
       </c>
       <c r="M18">
-        <v>5.23</v>
+        <v>16.6</v>
       </c>
       <c r="N18">
-        <v>0.0398932112890923</v>
+        <v>0.0843924758515506</v>
       </c>
       <c r="O18">
-        <v>0.2003831417624521</v>
+        <v>0.3721973094170404</v>
       </c>
       <c r="P18">
-        <v>5.23</v>
+        <v>16.6</v>
       </c>
       <c r="Q18">
-        <v>0.0398932112890923</v>
+        <v>0.0843924758515506</v>
       </c>
       <c r="R18">
-        <v>0.2003831417624521</v>
+        <v>0.3721973094170404</v>
       </c>
       <c r="S18">
         <v>0</v>
@@ -2564,55 +2585,55 @@
         <v>0</v>
       </c>
       <c r="U18">
-        <v>188</v>
+        <v>73.7</v>
       </c>
       <c r="V18">
-        <v>1.434019832189169</v>
+        <v>0.3746822572445349</v>
       </c>
       <c r="W18">
-        <v>0.1250598945855295</v>
+        <v>0.137442218798151</v>
       </c>
       <c r="X18">
-        <v>0.08692143638771553</v>
+        <v>0.1111552086283298</v>
       </c>
       <c r="Y18">
-        <v>0.03813845819781396</v>
+        <v>0.02628701016982124</v>
       </c>
       <c r="Z18">
-        <v>0.4817184643510056</v>
+        <v>0.3284717818642993</v>
       </c>
       <c r="AA18">
         <v>0</v>
       </c>
       <c r="AB18">
-        <v>0.06711249066085999</v>
+        <v>0.06162630521898038</v>
       </c>
       <c r="AC18">
-        <v>-0.06711249066085999</v>
+        <v>-0.06162630521898038</v>
       </c>
       <c r="AD18">
-        <v>161.9</v>
+        <v>416.9</v>
       </c>
       <c r="AE18">
         <v>0</v>
       </c>
       <c r="AF18">
-        <v>161.9</v>
+        <v>416.9</v>
       </c>
       <c r="AG18">
-        <v>-26.09999999999999</v>
+        <v>343.2</v>
       </c>
       <c r="AH18">
-        <v>0.5525597269624574</v>
+        <v>0.6794328552803129</v>
       </c>
       <c r="AI18">
-        <v>0.4149154279856483</v>
+        <v>0.5426972142671179</v>
       </c>
       <c r="AJ18">
-        <v>-0.2485714285714285</v>
+        <v>0.6356732728283015</v>
       </c>
       <c r="AK18">
-        <v>-0.129080118694362</v>
+        <v>0.4941684665226782</v>
       </c>
       <c r="AL18">
         <v>0</v>
@@ -2629,7 +2650,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Export Import Bank of Bangladesh Limited (DSE:EXIMBANK)</t>
+          <t>Mutual Trust Bank Limited (DSE:MTB)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2638,10 +2659,10 @@
         </is>
       </c>
       <c r="D19">
-        <v>0.0368</v>
+        <v>0.09949999999999999</v>
       </c>
       <c r="E19">
-        <v>-0.00547</v>
+        <v>0.00577</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -2656,28 +2677,28 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>33.1</v>
+        <v>15.9</v>
       </c>
       <c r="L19">
-        <v>0.2604248623131393</v>
+        <v>0.1417112299465241</v>
       </c>
       <c r="M19">
-        <v>16.7</v>
+        <v>4.15</v>
       </c>
       <c r="N19">
-        <v>0.0994047619047619</v>
+        <v>0.01975249881009044</v>
       </c>
       <c r="O19">
-        <v>0.5045317220543806</v>
+        <v>0.2610062893081761</v>
       </c>
       <c r="P19">
-        <v>16.7</v>
+        <v>4.15</v>
       </c>
       <c r="Q19">
-        <v>0.0994047619047619</v>
+        <v>0.01975249881009044</v>
       </c>
       <c r="R19">
-        <v>0.5045317220543806</v>
+        <v>0.2610062893081761</v>
       </c>
       <c r="S19">
         <v>0</v>
@@ -2686,55 +2707,55 @@
         <v>0</v>
       </c>
       <c r="U19">
-        <v>75.8</v>
+        <v>119.9</v>
       </c>
       <c r="V19">
-        <v>0.4511904761904762</v>
+        <v>0.5706806282722513</v>
       </c>
       <c r="W19">
-        <v>0.1066022544283414</v>
+        <v>0.08803986710963456</v>
       </c>
       <c r="X19">
-        <v>0.08957883256248658</v>
+        <v>0.1118149876144667</v>
       </c>
       <c r="Y19">
-        <v>0.0170234218658548</v>
+        <v>-0.02377512050483212</v>
       </c>
       <c r="Z19">
-        <v>0.2751677852348993</v>
+        <v>0.2447643979057592</v>
       </c>
       <c r="AA19">
         <v>0</v>
       </c>
       <c r="AB19">
-        <v>0.06755811505592388</v>
+        <v>0.06166994847492287</v>
       </c>
       <c r="AC19">
-        <v>-0.06755811505592388</v>
+        <v>-0.06166994847492287</v>
       </c>
       <c r="AD19">
-        <v>224.4</v>
+        <v>450</v>
       </c>
       <c r="AE19">
         <v>0</v>
       </c>
       <c r="AF19">
-        <v>224.4</v>
+        <v>450</v>
       </c>
       <c r="AG19">
-        <v>148.6</v>
+        <v>330.1</v>
       </c>
       <c r="AH19">
-        <v>0.5718654434250765</v>
+        <v>0.6817148916830783</v>
       </c>
       <c r="AI19">
-        <v>0.4088176352705411</v>
+        <v>0.6889161053276178</v>
       </c>
       <c r="AJ19">
-        <v>0.4693619709412508</v>
+        <v>0.6110699740836727</v>
       </c>
       <c r="AK19">
-        <v>0.3140984992601987</v>
+        <v>0.6189761860116259</v>
       </c>
       <c r="AL19">
         <v>0</v>
@@ -2751,7 +2772,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Southeast Bank Limited (DSE:SOUTHEASTB)</t>
+          <t>The City Bank Limited (DSE:CITYBANK)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2760,10 +2781,10 @@
         </is>
       </c>
       <c r="D20">
-        <v>0.00757</v>
+        <v>0.102</v>
       </c>
       <c r="E20">
-        <v>-0.04679999999999999</v>
+        <v>0.0272</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2778,82 +2799,85 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>38.8</v>
+        <v>36.5</v>
       </c>
       <c r="L20">
-        <v>0.2950570342205323</v>
+        <v>0.1852791878172589</v>
       </c>
       <c r="M20">
-        <v>-0</v>
+        <v>18.1</v>
       </c>
       <c r="N20">
-        <v>-0</v>
+        <v>0.06084033613445378</v>
       </c>
       <c r="O20">
-        <v>-0</v>
+        <v>0.4958904109589041</v>
       </c>
       <c r="P20">
-        <v>-0</v>
+        <v>18.1</v>
       </c>
       <c r="Q20">
-        <v>-0</v>
+        <v>0.06084033613445378</v>
       </c>
       <c r="R20">
-        <v>-0</v>
+        <v>0.4958904109589041</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
       <c r="U20">
-        <v>404.8</v>
+        <v>462.5</v>
       </c>
       <c r="V20">
-        <v>2.210813762971054</v>
+        <v>1.554621848739496</v>
       </c>
       <c r="W20">
-        <v>0.11513353115727</v>
+        <v>0.1224421335122442</v>
       </c>
       <c r="X20">
-        <v>0.09286671962379918</v>
+        <v>0.137824261888536</v>
       </c>
       <c r="Y20">
-        <v>0.02226681153347085</v>
+        <v>-0.01538212837629177</v>
       </c>
       <c r="Z20">
-        <v>0.3073866292660121</v>
+        <v>0.3909505854336178</v>
       </c>
       <c r="AA20">
         <v>0</v>
       </c>
       <c r="AB20">
-        <v>0.06805894238678024</v>
+        <v>0.06300384060100236</v>
       </c>
       <c r="AC20">
-        <v>-0.06805894238678024</v>
+        <v>-0.06300384060100236</v>
       </c>
       <c r="AD20">
-        <v>267.4</v>
+        <v>899.5</v>
       </c>
       <c r="AE20">
         <v>0</v>
       </c>
       <c r="AF20">
-        <v>267.4</v>
+        <v>899.5</v>
       </c>
       <c r="AG20">
-        <v>-137.4</v>
+        <v>437</v>
       </c>
       <c r="AH20">
-        <v>0.5935627081021088</v>
+        <v>0.7514619883040936</v>
       </c>
       <c r="AI20">
-        <v>0.4205063689259317</v>
+        <v>0.7361486210000818</v>
       </c>
       <c r="AJ20">
-        <v>-3.006564551422323</v>
+        <v>0.5949625595643295</v>
       </c>
       <c r="AK20">
-        <v>-0.5945478147987886</v>
+        <v>0.5754543060310772</v>
       </c>
       <c r="AL20">
         <v>0</v>
@@ -2870,7 +2894,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Al-Arafah Islami Bank Limited (DSE:ALARABANK)</t>
+          <t>First Security Islami Bank Limited (DSE:FIRSTSBANK)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2879,10 +2903,10 @@
         </is>
       </c>
       <c r="D21">
-        <v>0.0745</v>
+        <v>0.175</v>
       </c>
       <c r="E21">
-        <v>0.0271</v>
+        <v>0.257</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2897,85 +2921,82 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>29.8</v>
+        <v>26</v>
       </c>
       <c r="L21">
-        <v>0.2403225806451613</v>
+        <v>0.1931649331352155</v>
       </c>
       <c r="M21">
-        <v>17.7</v>
+        <v>-0</v>
       </c>
       <c r="N21">
-        <v>0.08205841446453407</v>
+        <v>-0</v>
       </c>
       <c r="O21">
-        <v>0.5939597315436241</v>
+        <v>-0</v>
       </c>
       <c r="P21">
-        <v>17.7</v>
+        <v>-0</v>
       </c>
       <c r="Q21">
-        <v>0.08205841446453407</v>
+        <v>-0</v>
       </c>
       <c r="R21">
-        <v>0.5939597315436241</v>
+        <v>-0</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
       <c r="U21">
-        <v>329.2</v>
+        <v>49.2</v>
       </c>
       <c r="V21">
-        <v>1.526193787668058</v>
+        <v>0.4880952380952381</v>
       </c>
       <c r="W21">
-        <v>0.1169085916045508</v>
+        <v>0.1518691588785047</v>
       </c>
       <c r="X21">
-        <v>0.09560391426313897</v>
+        <v>0.1478412052133642</v>
       </c>
       <c r="Y21">
-        <v>0.02130467734141184</v>
+        <v>0.004027953665140499</v>
       </c>
       <c r="Z21">
-        <v>0.2677607428201252</v>
+        <v>0.2745258005302876</v>
       </c>
       <c r="AA21">
         <v>0</v>
       </c>
       <c r="AB21">
-        <v>0.06843873193968465</v>
+        <v>0.06337376815298232</v>
       </c>
       <c r="AC21">
-        <v>-0.06843873193968465</v>
+        <v>-0.06337376815298232</v>
       </c>
       <c r="AD21">
-        <v>337.4</v>
+        <v>339</v>
       </c>
       <c r="AE21">
         <v>0</v>
       </c>
       <c r="AF21">
-        <v>337.4</v>
+        <v>339</v>
       </c>
       <c r="AG21">
-        <v>8.199999999999989</v>
+        <v>289.8</v>
       </c>
       <c r="AH21">
-        <v>0.6100162719218948</v>
+        <v>0.7708049113233287</v>
       </c>
       <c r="AI21">
-        <v>0.5427054849605919</v>
+        <v>0.6281267370761534</v>
       </c>
       <c r="AJ21">
-        <v>0.03662349263063863</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="AK21">
-        <v>0.02803418803418799</v>
+        <v>0.5908256880733945</v>
       </c>
       <c r="AL21">
         <v>0</v>
@@ -3001,10 +3022,10 @@
         </is>
       </c>
       <c r="D22">
-        <v>0.149</v>
+        <v>0.119</v>
       </c>
       <c r="E22">
-        <v>0.06059999999999999</v>
+        <v>0.263</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -3019,82 +3040,85 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>32.6</v>
+        <v>37.6</v>
       </c>
       <c r="L22">
-        <v>0.2517374517374518</v>
+        <v>0.3208191126279863</v>
       </c>
       <c r="M22">
-        <v>-0</v>
+        <v>5.45</v>
       </c>
       <c r="N22">
-        <v>-0</v>
+        <v>0.04325396825396825</v>
       </c>
       <c r="O22">
-        <v>-0</v>
+        <v>0.1449468085106383</v>
       </c>
       <c r="P22">
-        <v>-0</v>
+        <v>5.45</v>
       </c>
       <c r="Q22">
-        <v>-0</v>
+        <v>0.04325396825396825</v>
       </c>
       <c r="R22">
-        <v>-0</v>
+        <v>0.1449468085106383</v>
       </c>
       <c r="S22">
         <v>0</v>
       </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
       <c r="U22">
-        <v>372.7</v>
+        <v>638.1</v>
       </c>
       <c r="V22">
-        <v>2.740441176470588</v>
+        <v>5.064285714285714</v>
       </c>
       <c r="W22">
-        <v>0.1912023460410557</v>
+        <v>0.1869716558925908</v>
       </c>
       <c r="X22">
-        <v>0.1060868548930903</v>
+        <v>0.1498195291407878</v>
       </c>
       <c r="Y22">
-        <v>0.08511549114796543</v>
+        <v>0.03715212675180296</v>
       </c>
       <c r="Z22">
-        <v>1.006216006216006</v>
+        <v>1.23109243697479</v>
       </c>
       <c r="AA22">
         <v>0</v>
       </c>
       <c r="AB22">
-        <v>0.06964703634000598</v>
+        <v>0.0634401220995881</v>
       </c>
       <c r="AC22">
-        <v>-0.06964703634000598</v>
+        <v>-0.0634401220995881</v>
       </c>
       <c r="AD22">
-        <v>266.8</v>
+        <v>432.2</v>
       </c>
       <c r="AE22">
         <v>0</v>
       </c>
       <c r="AF22">
-        <v>266.8</v>
+        <v>432.2</v>
       </c>
       <c r="AG22">
-        <v>-105.9</v>
+        <v>-205.9</v>
       </c>
       <c r="AH22">
-        <v>0.6623634558093346</v>
+        <v>0.7742744536008598</v>
       </c>
       <c r="AI22">
-        <v>0.5702073092541142</v>
+        <v>0.6469091453375243</v>
       </c>
       <c r="AJ22">
-        <v>-3.518272425249166</v>
+        <v>2.576971214017521</v>
       </c>
       <c r="AK22">
-        <v>-1.112394957983193</v>
+        <v>-6.863333333333341</v>
       </c>
       <c r="AL22">
         <v>0</v>
@@ -3111,7 +3135,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Eastern Bank Limited (DSE:EBL)</t>
+          <t>AB Bank Limited (DSE:ABBANK)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -3120,10 +3144,10 @@
         </is>
       </c>
       <c r="D23">
-        <v>0.0549</v>
+        <v>-0.05889999999999999</v>
       </c>
       <c r="E23">
-        <v>0.0423</v>
+        <v>-0.229</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -3138,28 +3162,28 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>40.4</v>
+        <v>2.54</v>
       </c>
       <c r="L23">
-        <v>0.2813370473537605</v>
+        <v>0.03135802469135802</v>
       </c>
       <c r="M23">
-        <v>17.5</v>
+        <v>0.002</v>
       </c>
       <c r="N23">
-        <v>0.05513547574039068</v>
+        <v>1.759014951627089e-05</v>
       </c>
       <c r="O23">
-        <v>0.4331683168316832</v>
+        <v>0.0007874015748031496</v>
       </c>
       <c r="P23">
-        <v>17.5</v>
+        <v>0.002</v>
       </c>
       <c r="Q23">
-        <v>0.05513547574039068</v>
+        <v>1.759014951627089e-05</v>
       </c>
       <c r="R23">
-        <v>0.4331683168316832</v>
+        <v>0.0007874015748031496</v>
       </c>
       <c r="S23">
         <v>0</v>
@@ -3168,55 +3192,55 @@
         <v>0</v>
       </c>
       <c r="U23">
-        <v>228.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="V23">
-        <v>0.7199117832388154</v>
+        <v>0.6385224274406331</v>
       </c>
       <c r="W23">
-        <v>0.1514810648668916</v>
+        <v>0.008937368050668543</v>
       </c>
       <c r="X23">
-        <v>0.1085239808161932</v>
+        <v>0.1512700920504617</v>
       </c>
       <c r="Y23">
-        <v>0.04295708405069845</v>
+        <v>-0.1423327239997932</v>
       </c>
       <c r="Z23">
-        <v>0.1993060374739764</v>
+        <v>0.1865070227953028</v>
       </c>
       <c r="AA23">
         <v>0</v>
       </c>
       <c r="AB23">
-        <v>0.06988288239733485</v>
+        <v>0.06348751217558976</v>
       </c>
       <c r="AC23">
-        <v>-0.06988288239733485</v>
+        <v>-0.06348751217558976</v>
       </c>
       <c r="AD23">
-        <v>652</v>
+        <v>395.6</v>
       </c>
       <c r="AE23">
         <v>0</v>
       </c>
       <c r="AF23">
-        <v>652</v>
+        <v>395.6</v>
       </c>
       <c r="AG23">
-        <v>423.5</v>
+        <v>323</v>
       </c>
       <c r="AH23">
-        <v>0.6725809779244893</v>
+        <v>0.7767524052621245</v>
       </c>
       <c r="AI23">
-        <v>0.6948737077693702</v>
+        <v>0.5756693830034925</v>
       </c>
       <c r="AJ23">
-        <v>0.5716021055473074</v>
+        <v>0.739638195557591</v>
       </c>
       <c r="AK23">
-        <v>0.596646942800789</v>
+        <v>0.5255450699642044</v>
       </c>
       <c r="AL23">
         <v>0</v>
@@ -3233,7 +3257,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>The City Bank Limited (DSE:CITYBANK)</t>
+          <t>Dhaka Bank Limited (DSE:DHAKABANK)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3242,10 +3266,10 @@
         </is>
       </c>
       <c r="D24">
-        <v>0.161</v>
+        <v>0.0123</v>
       </c>
       <c r="E24">
-        <v>0.17</v>
+        <v>-0.0897</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -3260,28 +3284,28 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>30.7</v>
+        <v>21.1</v>
       </c>
       <c r="L24">
-        <v>0.1597294484911551</v>
+        <v>0.225668449197861</v>
       </c>
       <c r="M24">
-        <v>5.99</v>
+        <v>5.03</v>
       </c>
       <c r="N24">
-        <v>0.02371338083927158</v>
+        <v>0.03998410174880764</v>
       </c>
       <c r="O24">
-        <v>0.195114006514658</v>
+        <v>0.2383886255924171</v>
       </c>
       <c r="P24">
-        <v>5.99</v>
+        <v>5.03</v>
       </c>
       <c r="Q24">
-        <v>0.02371338083927158</v>
+        <v>0.03998410174880764</v>
       </c>
       <c r="R24">
-        <v>0.195114006514658</v>
+        <v>0.2383886255924171</v>
       </c>
       <c r="S24">
         <v>0</v>
@@ -3290,55 +3314,55 @@
         <v>0</v>
       </c>
       <c r="U24">
-        <v>428.5</v>
+        <v>175.7</v>
       </c>
       <c r="V24">
-        <v>1.696357878068092</v>
+        <v>1.396661367249602</v>
       </c>
       <c r="W24">
-        <v>0.1068941504178273</v>
+        <v>0.1020309477756286</v>
       </c>
       <c r="X24">
-        <v>0.1205716100338845</v>
+        <v>0.1547875134728465</v>
       </c>
       <c r="Y24">
-        <v>-0.01367745961605722</v>
+        <v>-0.05275656569721787</v>
       </c>
       <c r="Z24">
-        <v>0.4327854086917359</v>
+        <v>0.2220375207789124</v>
       </c>
       <c r="AA24">
         <v>0</v>
       </c>
       <c r="AB24">
-        <v>0.07086635324096281</v>
+        <v>0.06359821834040486</v>
       </c>
       <c r="AC24">
-        <v>-0.07086635324096281</v>
+        <v>-0.06359821834040486</v>
       </c>
       <c r="AD24">
-        <v>634.3</v>
+        <v>452.7</v>
       </c>
       <c r="AE24">
         <v>0</v>
       </c>
       <c r="AF24">
-        <v>634.3</v>
+        <v>452.7</v>
       </c>
       <c r="AG24">
-        <v>205.8</v>
+        <v>277</v>
       </c>
       <c r="AH24">
-        <v>0.7151877325515842</v>
+        <v>0.7825410544511668</v>
       </c>
       <c r="AI24">
-        <v>0.6802874302874302</v>
+        <v>0.6726597325408618</v>
       </c>
       <c r="AJ24">
-        <v>0.4489528795811518</v>
+        <v>0.6876861966236345</v>
       </c>
       <c r="AK24">
-        <v>0.4084143679301448</v>
+        <v>0.5570078423486828</v>
       </c>
       <c r="AL24">
         <v>0</v>
@@ -3364,10 +3388,10 @@
         </is>
       </c>
       <c r="D25">
-        <v>0.0358</v>
+        <v>0.06179999999999999</v>
       </c>
       <c r="E25">
-        <v>-0.063</v>
+        <v>-0.0732</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -3382,10 +3406,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>33.4</v>
+        <v>31.3</v>
       </c>
       <c r="L25">
-        <v>0.1675865529352734</v>
+        <v>0.141500904159132</v>
       </c>
       <c r="M25">
         <v>-0</v>
@@ -3409,55 +3433,55 @@
         <v>0</v>
       </c>
       <c r="U25">
-        <v>209.7</v>
+        <v>294.9</v>
       </c>
       <c r="V25">
-        <v>1.154735682819383</v>
+        <v>1.455577492596249</v>
       </c>
       <c r="W25">
-        <v>0.1011508176862508</v>
+        <v>0.0866076369673492</v>
       </c>
       <c r="X25">
-        <v>0.1292382299881412</v>
+        <v>0.1565827883588545</v>
       </c>
       <c r="Y25">
-        <v>-0.02808741230189041</v>
+        <v>-0.06997515139150533</v>
       </c>
       <c r="Z25">
-        <v>0.3504483910673466</v>
+        <v>0.3314354210368594</v>
       </c>
       <c r="AA25">
         <v>0</v>
       </c>
       <c r="AB25">
-        <v>0.07142908564045765</v>
+        <v>0.06365253824710769</v>
       </c>
       <c r="AC25">
-        <v>-0.07142908564045765</v>
+        <v>-0.06365253824710769</v>
       </c>
       <c r="AD25">
-        <v>515.7</v>
+        <v>741.4</v>
       </c>
       <c r="AE25">
         <v>0</v>
       </c>
       <c r="AF25">
-        <v>515.7</v>
+        <v>741.4</v>
       </c>
       <c r="AG25">
-        <v>306.0000000000001</v>
+        <v>446.5</v>
       </c>
       <c r="AH25">
-        <v>0.7395669009034849</v>
+        <v>0.7853813559322034</v>
       </c>
       <c r="AI25">
-        <v>0.5879603237943223</v>
+        <v>0.6420159334949775</v>
       </c>
       <c r="AJ25">
-        <v>0.627563576702215</v>
+        <v>0.687875519950701</v>
       </c>
       <c r="AK25">
-        <v>0.4584956547797423</v>
+        <v>0.5192464240027911</v>
       </c>
       <c r="AL25">
         <v>0</v>
@@ -3474,7 +3498,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>First Security Islami Bank Limited (DSE:FIRSTSBANK)</t>
+          <t>BRAC Bank Limited (DSE:BRACBANK)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3483,10 +3507,10 @@
         </is>
       </c>
       <c r="D26">
-        <v>0.179</v>
+        <v>0.125</v>
       </c>
       <c r="E26">
-        <v>0.265</v>
+        <v>0.17</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -3501,338 +3525,91 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <v>26.7</v>
+        <v>50.4</v>
       </c>
       <c r="L26">
-        <v>0.2253164556962025</v>
+        <v>0.171021377672209</v>
       </c>
       <c r="M26">
-        <v>-0</v>
+        <v>0.42</v>
       </c>
       <c r="N26">
-        <v>-0</v>
+        <v>0.0006057983556901775</v>
       </c>
       <c r="O26">
-        <v>-0</v>
+        <v>0.008333333333333333</v>
       </c>
       <c r="P26">
-        <v>-0</v>
+        <v>0.42</v>
       </c>
       <c r="Q26">
-        <v>-0</v>
+        <v>0.0006057983556901775</v>
       </c>
       <c r="R26">
-        <v>-0</v>
+        <v>0.008333333333333333</v>
       </c>
       <c r="S26">
         <v>0</v>
       </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
       <c r="U26">
-        <v>40.1</v>
+        <v>559.1</v>
       </c>
       <c r="V26">
-        <v>0.4071065989847716</v>
+        <v>0.8064330015866148</v>
       </c>
       <c r="W26">
-        <v>0.1831275720164609</v>
+        <v>0.110091743119266</v>
       </c>
       <c r="X26">
-        <v>0.1505161164103274</v>
+        <v>0.06739224093705774</v>
       </c>
       <c r="Y26">
-        <v>0.03261145560613349</v>
+        <v>0.0426995021822083</v>
       </c>
       <c r="Z26">
-        <v>0.5371713508612873</v>
+        <v>1.111236802413273</v>
       </c>
       <c r="AA26">
         <v>0</v>
       </c>
       <c r="AB26">
-        <v>0.07247302982948256</v>
+        <v>0.06498814483482855</v>
       </c>
       <c r="AC26">
-        <v>-0.07247302982948256</v>
+        <v>-0.06498814483482855</v>
       </c>
       <c r="AD26">
-        <v>359.2</v>
+        <v>440.9</v>
       </c>
       <c r="AE26">
         <v>0</v>
       </c>
       <c r="AF26">
-        <v>359.2</v>
+        <v>440.9</v>
       </c>
       <c r="AG26">
-        <v>319.1</v>
+        <v>-118.2</v>
       </c>
       <c r="AH26">
-        <v>0.7847935328818003</v>
+        <v>0.3887321460059955</v>
       </c>
       <c r="AI26">
-        <v>0.6721556886227545</v>
+        <v>0.424922898997687</v>
       </c>
       <c r="AJ26">
-        <v>0.7641283524904214</v>
+        <v>-0.2055294731351071</v>
       </c>
       <c r="AK26">
-        <v>0.6455593768966215</v>
+        <v>-0.2470219435736678</v>
       </c>
       <c r="AL26">
         <v>0</v>
       </c>
       <c r="AM26">
         <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Bangladesh</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Dhaka Bank Limited (DSE:DHAKABANK)</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Bank (Money Center)</t>
-        </is>
-      </c>
-      <c r="D27">
-        <v>0.04389999999999999</v>
-      </c>
-      <c r="E27">
-        <v>-0.068</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>17.3</v>
-      </c>
-      <c r="L27">
-        <v>0.1800208116545265</v>
-      </c>
-      <c r="M27">
-        <v>4.81</v>
-      </c>
-      <c r="N27">
-        <v>0.03988391376451078</v>
-      </c>
-      <c r="O27">
-        <v>0.2780346820809248</v>
-      </c>
-      <c r="P27">
-        <v>4.81</v>
-      </c>
-      <c r="Q27">
-        <v>0.03988391376451078</v>
-      </c>
-      <c r="R27">
-        <v>0.2780346820809248</v>
-      </c>
-      <c r="S27">
-        <v>0</v>
-      </c>
-      <c r="T27">
-        <v>0</v>
-      </c>
-      <c r="U27">
-        <v>228.4</v>
-      </c>
-      <c r="V27">
-        <v>1.893864013266998</v>
-      </c>
-      <c r="W27">
-        <v>0.08822029576746558</v>
-      </c>
-      <c r="X27">
-        <v>0.1511519166700949</v>
-      </c>
-      <c r="Y27">
-        <v>-0.06293162090262931</v>
-      </c>
-      <c r="Z27">
-        <v>0.2097337407245744</v>
-      </c>
-      <c r="AA27">
-        <v>0</v>
-      </c>
-      <c r="AB27">
-        <v>0.07249867354045937</v>
-      </c>
-      <c r="AC27">
-        <v>-0.07249867354045937</v>
-      </c>
-      <c r="AD27">
-        <v>442.7</v>
-      </c>
-      <c r="AE27">
-        <v>0</v>
-      </c>
-      <c r="AF27">
-        <v>442.7</v>
-      </c>
-      <c r="AG27">
-        <v>214.3</v>
-      </c>
-      <c r="AH27">
-        <v>0.7859044913900232</v>
-      </c>
-      <c r="AI27">
-        <v>0.6816012317167052</v>
-      </c>
-      <c r="AJ27">
-        <v>0.6398925052254404</v>
-      </c>
-      <c r="AK27">
-        <v>0.5089052481595819</v>
-      </c>
-      <c r="AL27">
-        <v>0</v>
-      </c>
-      <c r="AM27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Bangladesh</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Islami Bank Bangladesh Limited (DSE:ISLAMIBANK)</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Bank (Money Center)</t>
-        </is>
-      </c>
-      <c r="D28">
-        <v>0.08900000000000001</v>
-      </c>
-      <c r="E28">
-        <v>0.0622</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>-0.03016134517199873</v>
-      </c>
-      <c r="J28">
-        <v>-0.01508067258599937</v>
-      </c>
-      <c r="K28">
-        <v>75.7</v>
-      </c>
-      <c r="L28">
-        <v>0.1798954372623574</v>
-      </c>
-      <c r="M28">
-        <v>19</v>
-      </c>
-      <c r="N28">
-        <v>0.05245720596355605</v>
-      </c>
-      <c r="O28">
-        <v>0.2509907529722589</v>
-      </c>
-      <c r="P28">
-        <v>19</v>
-      </c>
-      <c r="Q28">
-        <v>0.05245720596355605</v>
-      </c>
-      <c r="R28">
-        <v>0.2509907529722589</v>
-      </c>
-      <c r="S28">
-        <v>0</v>
-      </c>
-      <c r="T28">
-        <v>0</v>
-      </c>
-      <c r="U28">
-        <v>1324.4</v>
-      </c>
-      <c r="V28">
-        <v>3.65654334621756</v>
-      </c>
-      <c r="W28">
-        <v>0.1206759126414794</v>
-      </c>
-      <c r="X28">
-        <v>0.1099713915503874</v>
-      </c>
-      <c r="Y28">
-        <v>0.01070452109109199</v>
-      </c>
-      <c r="Z28">
-        <v>1.132981341929565</v>
-      </c>
-      <c r="AA28">
-        <v>-0.01708612066368596</v>
-      </c>
-      <c r="AB28">
-        <v>0.06503035657857936</v>
-      </c>
-      <c r="AC28">
-        <v>-0.08211647724226533</v>
-      </c>
-      <c r="AD28">
-        <v>662.7</v>
-      </c>
-      <c r="AE28">
-        <v>101.2094702418853</v>
-      </c>
-      <c r="AF28">
-        <v>763.9094702418854</v>
-      </c>
-      <c r="AG28">
-        <v>-560.4905297581147</v>
-      </c>
-      <c r="AH28">
-        <v>0.678361642831935</v>
-      </c>
-      <c r="AI28">
-        <v>0.5292396135615419</v>
-      </c>
-      <c r="AJ28">
-        <v>2.826612700272831</v>
-      </c>
-      <c r="AK28">
-        <v>-4.709629650639772</v>
-      </c>
-      <c r="AL28">
-        <v>0</v>
-      </c>
-      <c r="AM28">
-        <v>0</v>
-      </c>
-      <c r="AN28">
-        <v>87.7748344370861</v>
-      </c>
-      <c r="AP28">
-        <v>-74.23715625935294</v>
       </c>
     </row>
   </sheetData>
